--- a/Entity model.xlsx
+++ b/Entity model.xlsx
@@ -4,24 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="812" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="884" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity List" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="BusinessUnit" sheetId="4" r:id="rId3"/>
-    <sheet name="Witchcraft" sheetId="3" r:id="rId4"/>
-    <sheet name="witchcraftLog" sheetId="8" r:id="rId5"/>
-    <sheet name="Witchcraft-Detail" sheetId="7" r:id="rId6"/>
-    <sheet name="ServiceGrade" sheetId="5" r:id="rId7"/>
+    <sheet name="ServiceGrade" sheetId="5" r:id="rId3"/>
+    <sheet name="BusinessUnit" sheetId="4" r:id="rId4"/>
+    <sheet name="Witchcraft" sheetId="3" r:id="rId5"/>
+    <sheet name="witchcraftLog" sheetId="8" r:id="rId6"/>
+    <sheet name="Witchcraft-Detail" sheetId="7" r:id="rId7"/>
     <sheet name="Post" sheetId="9" r:id="rId8"/>
-    <sheet name="PostCategory" sheetId="10" r:id="rId9"/>
-    <sheet name="Postscript" sheetId="13" r:id="rId10"/>
-    <sheet name="Comment" sheetId="11" r:id="rId11"/>
+    <sheet name="Report" sheetId="22" r:id="rId9"/>
+    <sheet name="PostCategory" sheetId="10" r:id="rId10"/>
+    <sheet name="Postscript" sheetId="13" r:id="rId11"/>
     <sheet name="CommentPostscript" sheetId="14" r:id="rId12"/>
+    <sheet name="Comment" sheetId="11" r:id="rId13"/>
+    <sheet name="PostComment" sheetId="23" r:id="rId14"/>
+    <sheet name="GalleryComment" sheetId="21" r:id="rId15"/>
+    <sheet name="File" sheetId="15" r:id="rId16"/>
+    <sheet name="Image" sheetId="18" r:id="rId17"/>
+    <sheet name="FileComment" sheetId="20" r:id="rId18"/>
+    <sheet name="Gallery" sheetId="17" r:id="rId19"/>
+    <sheet name="Attachment" sheetId="19" r:id="rId20"/>
+    <sheet name="Folder" sheetId="16" r:id="rId21"/>
+    <sheet name="MenuItem" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Witchcraft-Detail'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Witchcraft-Detail'!$A$1:$M$19</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="671">
   <si>
     <t>实体名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,10 +406,6 @@
   </si>
   <si>
     <t>organizition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织 公司名称 生态系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1317,14 +1323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1541,14 +1539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommentPostscript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1565,27 +1555,444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关回帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeItUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countComments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countRequests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关回帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除状态</t>
+    <t>点击数量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeUsers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞同的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentPostscript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeIt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeItUsers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用威尔逊得分算法 0-1 smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织 公司名称 生态系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量
+经验开放性
+尽责性
+外向性
+亲和性
+情绪不稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：公斤 kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔，是否残疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：厘米 cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量: 偏瘦，标准，偏胖，肥胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量：惊艳，漂亮，普通，不好看，丑陋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感情状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已婚，离婚，恋爱，失恋，单身，独身主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexualOrientation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性取向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量：异性恋，同性恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexualAttitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性态度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量：富有，中产，贫穷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量：性冷淡，偏保守，中立态度，偏开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特长，擅长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量：大学…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上过的学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量：高智商，聪明，普通，偏低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州，省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者的操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desktop, tablet, mobile, tv, cars, console, etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorBrowser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者的设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者的浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者的设备品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是机器人，爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>botInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人，爬虫信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1593,15 +2000,619 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ManyToMany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likeItUser</t>
+    <t>Crawler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originalFilename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是上传的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManyToOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length=255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exifDetermine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有exif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exifModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exif 模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exifXresolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exifYResolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exifDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detetedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galleryName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件包含的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneToMany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containGallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否包含相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含的相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galleries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int, hard increase, easy decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedAT</t>
+  </si>
+  <si>
+    <t>deletedAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除时间</t>
+  </si>
+  <si>
+    <t>删除时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报内容类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManyToOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多态鉴别字段: Post,File, Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool,证明正确给予举报人一定激励，给予被举报人惩罚和信用评估。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detetedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴别器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post, File, Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManyToOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetGallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneToOne 单向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1609,115 +2620,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>children</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createdBy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updatedBy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔，length=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>countComments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>countRequests</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击数量统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数量统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeUsers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赞同的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否定的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentPostscript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likeIt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likeItUsers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用威尔逊得分算法 0-1 smallint</t>
+    <t>FileComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneToMany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GalleryComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extends File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label to output, name is used by default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否站内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1820,7 +2827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1878,8 +2885,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1917,8 +2944,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,6 +3089,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,8 +3129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="83">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2057,6 +3152,29 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2075,6 +3193,29 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2404,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2426,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2439,11 +3580,11 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>93</v>
+      <c r="C2" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2453,21 +3594,21 @@
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="44"/>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="44"/>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1">
@@ -2477,9 +3618,9 @@
       <c r="B5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="44"/>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2489,9 +3630,9 @@
       <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="44"/>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -2501,35 +3642,35 @@
       <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="44"/>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="44"/>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" t="s">
         <v>295</v>
-      </c>
-      <c r="D9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2539,54 +3680,54 @@
       <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>94</v>
+      <c r="C10" s="44" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C12" s="35"/>
+        <v>348</v>
+      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15" s="35"/>
+        <v>373</v>
+      </c>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="17" t="s">
@@ -2595,7 +3736,7 @@
       <c r="B16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
@@ -2612,8 +3753,8 @@
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>95</v>
+      <c r="C18" s="44" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2623,7 +3764,7 @@
       <c r="B19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
@@ -2632,7 +3773,7 @@
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
@@ -2641,7 +3782,12 @@
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="36" t="s">
+        <v>488</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2661,10 +3807,165 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B14" t="s">
+        <v>664</v>
+      </c>
+      <c r="D14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2677,32 +3978,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>361</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2710,284 +4011,32 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>420</v>
-      </c>
-      <c r="B16" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>414</v>
-      </c>
-      <c r="B17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>384</v>
-      </c>
-      <c r="B18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D19" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +4055,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3019,32 +4068,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>361</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3052,35 +4101,492 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>405</v>
       </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3094,12 +4600,644 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3107,30 +5245,30 @@
     <col min="1" max="1" width="23.1640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="16" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
@@ -3174,283 +5312,567 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>40</v>
+        <v>411</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
+      <c r="A8" s="9" t="s">
+        <v>464</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
+      <c r="A9" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>58</v>
+      <c r="A10" s="9" t="s">
+        <v>466</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
+      <c r="A11" s="9" t="s">
+        <v>470</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>72</v>
+      <c r="A12" s="9" t="s">
+        <v>472</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
+      <c r="A13" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
+      <c r="A14" s="9" t="s">
+        <v>455</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>116</v>
-      </c>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="97" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>417</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
+      <c r="D19" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>423</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>425</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>428</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>429</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>431</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>432</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>434</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>438</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>63</v>
+      <c r="D25" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>443</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>64</v>
+      <c r="D26" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>445</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>68</v>
+      <c r="D27" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>74</v>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="23" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>301</v>
+      <c r="D29" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>79</v>
+      <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>596</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3469,39 +5891,486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -3509,68 +6378,62 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>667</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3587,10 +6450,134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3611,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>21</v>
@@ -3625,7 +6612,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3633,142 +6620,142 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3783,12 +6770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A11" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3801,7 +6788,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>21</v>
@@ -3815,112 +6802,112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
         <v>259</v>
-      </c>
-      <c r="B5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
         <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
         <v>265</v>
-      </c>
-      <c r="B8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
         <v>284</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3934,13 +6921,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3960,51 +6947,51 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>248</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>249</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="21">
         <v>0.2</v>
@@ -4013,39 +7000,39 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>169</v>
+        <v>210</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="21">
         <v>0.2</v>
@@ -4054,35 +7041,35 @@
         <v>0</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+        <v>211</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="C4" s="21">
         <v>-2</v>
@@ -4091,37 +7078,37 @@
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="21">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J4" s="21">
         <f>2*60*60</f>
         <v>7200</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+        <v>216</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="21">
         <v>-5</v>
@@ -4130,36 +7117,36 @@
         <v>-1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="21">
         <f>30*60</f>
         <v>1800</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="21">
         <v>-2</v>
@@ -4168,37 +7155,37 @@
         <v>0</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="21">
         <f>J6*2</f>
         <v>3600</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="21">
         <f>30*60</f>
         <v>1800</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+        <v>226</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="21">
         <v>-2</v>
@@ -4207,37 +7194,37 @@
         <v>0</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7" s="21">
         <f>J7*2</f>
         <v>3600</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J7" s="21">
         <f>30*60</f>
         <v>1800</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+        <v>227</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="21">
         <v>-2</v>
@@ -4246,37 +7233,37 @@
         <v>0</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="21">
         <f>J8</f>
         <v>28800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J8" s="21">
         <f>8*60*60</f>
         <v>28800</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+        <v>233</v>
+      </c>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="21">
         <v>-3</v>
@@ -4285,41 +7272,41 @@
         <v>0</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="21">
         <f>J9/2</f>
         <v>300</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J9" s="21">
         <f>10*60</f>
         <v>600</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="21">
         <v>-2</v>
@@ -4328,36 +7315,36 @@
         <v>0</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" ref="F10:F13" si="0">J10/2</f>
+        <f>J10/2</f>
         <v>300</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J10" s="21">
         <v>600</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+        <v>152</v>
+      </c>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" hidden="1">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="21">
         <v>-2</v>
@@ -4366,34 +7353,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="0"/>
+        <f>J11/2</f>
         <v>3600</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11" s="21">
         <f>120*60</f>
         <v>7200</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" hidden="1">
       <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="C12" s="21">
         <v>-2</v>
@@ -4402,37 +7389,37 @@
         <v>0</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="0"/>
+        <f>J12/2</f>
         <v>900</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="21">
         <f>30*60</f>
         <v>1800</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+        <v>162</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="C13" s="21">
         <v>-2</v>
@@ -4441,37 +7428,37 @@
         <v>0</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="0"/>
+        <f>J13/2</f>
         <v>43200</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="21">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+        <v>166</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="C14" s="21">
         <v>-1</v>
@@ -4480,38 +7467,38 @@
         <v>0</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="21">
         <f>10*60</f>
         <v>600</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J14" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="L14" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="M14" s="41"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="21">
         <v>3</v>
@@ -4520,36 +7507,36 @@
         <v>-5</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" s="21">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="K15" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="C16" s="21">
         <v>-1</v>
@@ -4558,35 +7545,35 @@
         <v>0</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="G16" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="1:13" ht="30" hidden="1">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="21">
         <v>-1</v>
@@ -4595,36 +7582,36 @@
         <v>-2</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="21">
         <f>J17*1.5</f>
         <v>129600</v>
       </c>
       <c r="G17" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>192</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>193</v>
       </c>
       <c r="J17" s="21">
         <v>86400</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+        <v>196</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="21">
         <v>3</v>
@@ -4633,38 +7620,38 @@
         <v>0</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="21">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="I18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="M18" s="41"/>
+      <c r="L18" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="1:13" hidden="1">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="21">
         <v>-50</v>
@@ -4673,28 +7660,28 @@
         <v>0</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="G19" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="K19" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M19">
@@ -4722,111 +7709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4843,7 +7731,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -4862,210 +7750,251 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
         <v>310</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>311</v>
       </c>
-      <c r="C3" t="s">
-        <v>312</v>
-      </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
         <v>313</v>
-      </c>
-      <c r="D4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" t="s">
-        <v>352</v>
+        <v>480</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" t="s">
-        <v>322</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>484</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" t="s">
-        <v>328</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="D15" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>336</v>
+      </c>
+      <c r="C17" t="s">
+        <v>337</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>339</v>
       </c>
       <c r="D18" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>342</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" t="s">
+        <v>620</v>
+      </c>
+      <c r="D24" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5082,23 +8011,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -5111,121 +8040,93 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>354</v>
+      <c r="A2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" t="s">
-        <v>356</v>
+      <c r="A3" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>397</v>
+      <c r="A4" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="38" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>398</v>
+      <c r="A6" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>400</v>
+      <c r="A7" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="60">
+      <c r="A8" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>337</v>
-      </c>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
